--- a/biology/Microbiologie/Aeropyrum_pernix/Aeropyrum_pernix.xlsx
+++ b/biology/Microbiologie/Aeropyrum_pernix/Aeropyrum_pernix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aeropyrum pernix est une espèce d'archées halophiles de l'ordre des Desulfurococcales. Elle a été isolée à partir de sédiments marins chauds à proximité de fumerolles de Kotakara-jima, une île de l'archipel Satsunan située entre Kyushu et Okinawa, au Japon[2].
-Les cellules d'Aeropyrum pernix sont sphériques et mesurent environ 1 μm de diamètre. Elles sont entourées d'une enveloppe de 25 nm d'épaisseur. Elles se développent à une température de 70 à 100 °C (aucune croissance détectée à 68 °C ni à 102 °C), avec un optimum entre 90 °C et 95 °C  et à pH égal à 7, avec une salinité comprise entre 1,8 % et 7 %, l'optimum se situant à 3,5 % ; une salinité inférieure à 1,5 % provoque la lyse des cellules. Elles se développent bien sur les substances peptidiques, avec un temps de doublement d'environ 200 minutes[2]. Ces archées sont sensibles au chloramphénicol et insensibles à l'ampicilline, la vancomycine et la cyclosérine. 
-Son génome a été entièrement séquencé en 1996. Il mesure 1 669 kilobases et contient 2 694 gènes potentiels[3]. Il contient tous les gènes des enzymes du cycle de Krebs hormis l'α-cétoglutarate déshydrogénase, remplacée par les deux sous-unités de l'α-cétoglutarate synthase (EC 1.2.7.3).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aeropyrum pernix est une espèce d'archées halophiles de l'ordre des Desulfurococcales. Elle a été isolée à partir de sédiments marins chauds à proximité de fumerolles de Kotakara-jima, une île de l'archipel Satsunan située entre Kyushu et Okinawa, au Japon.
+Les cellules d'Aeropyrum pernix sont sphériques et mesurent environ 1 μm de diamètre. Elles sont entourées d'une enveloppe de 25 nm d'épaisseur. Elles se développent à une température de 70 à 100 °C (aucune croissance détectée à 68 °C ni à 102 °C), avec un optimum entre 90 °C et 95 °C  et à pH égal à 7, avec une salinité comprise entre 1,8 % et 7 %, l'optimum se situant à 3,5 % ; une salinité inférieure à 1,5 % provoque la lyse des cellules. Elles se développent bien sur les substances peptidiques, avec un temps de doublement d'environ 200 minutes. Ces archées sont sensibles au chloramphénicol et insensibles à l'ampicilline, la vancomycine et la cyclosérine. 
+Son génome a été entièrement séquencé en 1996. Il mesure 1 669 kilobases et contient 2 694 gènes potentiels. Il contient tous les gènes des enzymes du cycle de Krebs hormis l'α-cétoglutarate déshydrogénase, remplacée par les deux sous-unités de l'α-cétoglutarate synthase (EC 1.2.7.3).
 </t>
         </is>
       </c>
